--- a/data/trans_orig/P79_n_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R-Provincia-trans_orig.xlsx
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18999</v>
+        <v>15665</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009284858981934244</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06011172929402243</v>
+        <v>0.04956272246560636</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14799</v>
+        <v>17312</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00462206822855582</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02330834787444855</v>
+        <v>0.02726764885627966</v>
       </c>
     </row>
     <row r="7">
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4814</v>
+        <v>4662</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002523371287959411</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01509722928212116</v>
+        <v>0.01462034479535609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2553</v>
+        <v>2757</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001581172112880486</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008076984316449654</v>
+        <v>0.00872225553149599</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4410</v>
+        <v>4205</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002054337899237273</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006946405538301023</v>
+        <v>0.00662321209940799</v>
       </c>
     </row>
     <row r="8">
@@ -959,19 +959,19 @@
         <v>7530</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2764</v>
+        <v>2952</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19721</v>
+        <v>17651</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02361717447496207</v>
+        <v>0.02361717447496208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008669142326104507</v>
+        <v>0.00925704469248588</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06185247505039508</v>
+        <v>0.05535802619610688</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -980,19 +980,19 @@
         <v>3011</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>972</v>
+        <v>998</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7353</v>
+        <v>8527</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.009527578698914206</v>
+        <v>0.009527578698914204</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00307495074664607</v>
+        <v>0.003156504838400035</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02326444442001018</v>
+        <v>0.02697823324381126</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1001,19 +1001,19 @@
         <v>10542</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5381</v>
+        <v>5403</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22365</v>
+        <v>22460</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01660327441289581</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008476007888248434</v>
+        <v>0.008510662752741004</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03522553489717827</v>
+        <v>0.03537459308396429</v>
       </c>
     </row>
     <row r="9">
@@ -1028,19 +1028,19 @@
         <v>310510</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>298695</v>
+        <v>300659</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>315480</v>
+        <v>315223</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9738594542370784</v>
+        <v>0.9738594542370786</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9368022758447855</v>
+        <v>0.9429620079720971</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9894458774001537</v>
+        <v>0.9886389503493747</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>531</v>
@@ -1049,19 +1049,19 @@
         <v>309615</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>295032</v>
+        <v>298127</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>313701</v>
+        <v>313702</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.979606390206271</v>
+        <v>0.9796063902062709</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9334666850339312</v>
+        <v>0.9432587496532907</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9925342887767286</v>
+        <v>0.9925352981095614</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>855</v>
@@ -1070,19 +1070,19 @@
         <v>620126</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>605306</v>
+        <v>605216</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>626928</v>
+        <v>626755</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9767203194593113</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9533784848383151</v>
+        <v>0.9532367208252872</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9874346900293283</v>
+        <v>0.9871625778299692</v>
       </c>
     </row>
     <row r="10">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2752</v>
+        <v>3725</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001236418038616413</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.005036593811643815</v>
+        <v>0.006815899223744504</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>3306</v>
+        <v>3178</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0006273043609181758</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00306913647497284</v>
+        <v>0.002950782123253443</v>
       </c>
     </row>
     <row r="12">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5064</v>
+        <v>5224</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002682662260669535</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.009266288007251489</v>
+        <v>0.009559679992376634</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5117</v>
+        <v>5085</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00136106533747418</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.004750935539505203</v>
+        <v>0.004721117839777183</v>
       </c>
     </row>
     <row r="13">
@@ -1294,19 +1294,19 @@
         <v>6238</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1893</v>
+        <v>1374</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17758</v>
+        <v>18348</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01175486030013237</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003567784760229781</v>
+        <v>0.002589876018382591</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03346501449140471</v>
+        <v>0.03457596411444348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1315,19 +1315,19 @@
         <v>2050</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5667</v>
+        <v>5779</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00375192179282301</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001079612512307958</v>
+        <v>0.001076243085808324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0103706012470642</v>
+        <v>0.01057377939369845</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1336,19 +1336,19 @@
         <v>8288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3154</v>
+        <v>3325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19340</v>
+        <v>20043</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.007694519809295636</v>
+        <v>0.007694519809295635</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002928335771500874</v>
+        <v>0.003086507693889106</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01795455266729603</v>
+        <v>0.01860782333470607</v>
       </c>
     </row>
     <row r="14">
@@ -1363,19 +1363,19 @@
         <v>13459</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6343</v>
+        <v>6044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28043</v>
+        <v>28680</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02536405682803196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01195412042801712</v>
+        <v>0.01139063456224646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05284610302961614</v>
+        <v>0.05404784791374954</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1384,19 +1384,19 @@
         <v>13162</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7515</v>
+        <v>7730</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21014</v>
+        <v>20904</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02408385677947706</v>
+        <v>0.02408385677947705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0137507749000431</v>
+        <v>0.0141446346239739</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03845273105273599</v>
+        <v>0.03825120048118847</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -1405,19 +1405,19 @@
         <v>26621</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17397</v>
+        <v>17634</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45242</v>
+        <v>42458</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0247145393928085</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01615153578311528</v>
+        <v>0.01637136204882438</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04200176150509618</v>
+        <v>0.03941694134801269</v>
       </c>
     </row>
     <row r="15">
@@ -1432,19 +1432,19 @@
         <v>38728</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25969</v>
+        <v>26188</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>57895</v>
+        <v>56935</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07298268560451987</v>
+        <v>0.07298268560451988</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0489377999045022</v>
+        <v>0.04935190962932078</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1091018096611275</v>
+        <v>0.107293335470582</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>37</v>
@@ -1453,19 +1453,19 @@
         <v>29941</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21205</v>
+        <v>21559</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>40642</v>
+        <v>41056</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05478829145364053</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03880248926392111</v>
+        <v>0.03945000829867681</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07436780322238115</v>
+        <v>0.07512600866571387</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>62</v>
@@ -1474,19 +1474,19 @@
         <v>68670</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>53353</v>
+        <v>52545</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>90875</v>
+        <v>90513</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.06375164687923349</v>
+        <v>0.06375164687923347</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0495322640008278</v>
+        <v>0.04878213481295638</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08436701394168972</v>
+        <v>0.08403093475552163</v>
       </c>
     </row>
     <row r="16">
@@ -1501,19 +1501,19 @@
         <v>472222</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>452360</v>
+        <v>449345</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>487460</v>
+        <v>488487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8898983972673158</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8524684523293464</v>
+        <v>0.8467874043141382</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9186142937409147</v>
+        <v>0.9205506735786509</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>658</v>
@@ -1522,19 +1522,19 @@
         <v>499199</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>486475</v>
+        <v>486078</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>509398</v>
+        <v>510741</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9134568496747736</v>
+        <v>0.9134568496747735</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8901750417892257</v>
+        <v>0.8894480361957379</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9321209135011347</v>
+        <v>0.9345773259041618</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1002</v>
@@ -1543,19 +1543,19 @@
         <v>971421</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>946268</v>
+        <v>947092</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>991889</v>
+        <v>992905</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.90185092422027</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.878499270650993</v>
+        <v>0.8792650292531512</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9208535374507703</v>
+        <v>0.9217967755511737</v>
       </c>
     </row>
     <row r="17">
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7386</v>
+        <v>5484</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003847849935510815</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02337337242749073</v>
+        <v>0.0173553927975757</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8173</v>
+        <v>7673</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006033638558333399</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02293393403079619</v>
+        <v>0.02153127089677663</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1732,19 +1732,19 @@
         <v>3366</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11817</v>
+        <v>10618</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005006391741807626</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001006671955334186</v>
+        <v>0.001001946147183346</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01757485773889842</v>
+        <v>0.01579246824655822</v>
       </c>
     </row>
     <row r="20">
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9405</v>
+        <v>10362</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008202342753598173</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02976340562548867</v>
+        <v>0.03279159428333248</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2808</v>
+        <v>3217</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001820172553698405</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.007877890647739052</v>
+        <v>0.009026363858383292</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1801,19 +1801,19 @@
         <v>3241</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10034</v>
+        <v>10663</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.00481957695717939</v>
+        <v>0.004819576957179389</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0009639935036681001</v>
+        <v>0.0009737772107288916</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01492294121633151</v>
+        <v>0.01585813464714231</v>
       </c>
     </row>
     <row r="21">
@@ -1828,19 +1828,19 @@
         <v>3574</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8560</v>
+        <v>9063</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01131137501222739</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00300624644867639</v>
+        <v>0.003014446040625435</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02708906813539316</v>
+        <v>0.02868137059095389</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1849,19 +1849,19 @@
         <v>5953</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2666</v>
+        <v>2509</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11988</v>
+        <v>11440</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01670530098909323</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007481014826452816</v>
+        <v>0.007040490024755029</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03363715719605034</v>
+        <v>0.03210071933125923</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
@@ -1870,19 +1870,19 @@
         <v>9528</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5242</v>
+        <v>4967</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17482</v>
+        <v>16504</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01417033798743026</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00779616304629701</v>
+        <v>0.007387985889110413</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02600109883225424</v>
+        <v>0.02454624499139562</v>
       </c>
     </row>
     <row r="22">
@@ -1897,19 +1897,19 @@
         <v>10674</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5708</v>
+        <v>6063</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18379</v>
+        <v>19117</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03377855927236603</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01806228669733879</v>
+        <v>0.01918763452243764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05816139899942878</v>
+        <v>0.06049736745250113</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -1918,19 +1918,19 @@
         <v>14314</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8539</v>
+        <v>8902</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21805</v>
+        <v>22168</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04016529104596556</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02396093314721737</v>
+        <v>0.02497993024162219</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0611836006672631</v>
+        <v>0.06220363138473305</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -1939,19 +1939,19 @@
         <v>24988</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16796</v>
+        <v>17761</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34988</v>
+        <v>35837</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0371637428569362</v>
+        <v>0.03716374285693619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02497986623956717</v>
+        <v>0.02641492120047807</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05203659965155809</v>
+        <v>0.05329905381797759</v>
       </c>
     </row>
     <row r="23">
@@ -1966,19 +1966,19 @@
         <v>297937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>287837</v>
+        <v>286510</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>305006</v>
+        <v>304247</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9428598730262975</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9108972104523699</v>
+        <v>0.9066961930094236</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.965229094597735</v>
+        <v>0.9628269704351091</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>506</v>
@@ -1987,19 +1987,19 @@
         <v>333314</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>322956</v>
+        <v>323633</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>340869</v>
+        <v>341106</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9352755968529094</v>
+        <v>0.9352755968529093</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9062095743585054</v>
+        <v>0.908109415025167</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9564725042199899</v>
+        <v>0.9571384907264575</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>847</v>
@@ -2008,19 +2008,19 @@
         <v>631253</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>619336</v>
+        <v>619205</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>642499</v>
+        <v>641450</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9388399504566466</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9211163431303099</v>
+        <v>0.9209221832523223</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9555662624698371</v>
+        <v>0.9540064756284519</v>
       </c>
     </row>
     <row r="24">
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5431</v>
+        <v>6166</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003183509637956591</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0145542247955221</v>
+        <v>0.01652410340286899</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3609</v>
+        <v>3242</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001500917364019831</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008552046269809549</v>
+        <v>0.007683968216388696</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6829</v>
+        <v>5814</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002290561479823776</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008588455496976384</v>
+        <v>0.007312072441741349</v>
       </c>
     </row>
     <row r="27">
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7013</v>
+        <v>8119</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.004226327134462872</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01879419662360135</v>
+        <v>0.02175838026219373</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5652</v>
+        <v>5599</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.003890617819851006</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01339351751190983</v>
+        <v>0.01327015956179203</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -2266,19 +2266,19 @@
         <v>3219</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10094</v>
+        <v>9412</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.004048166911814683</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0008137993224677892</v>
+        <v>0.0008201251870116607</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01269455238539525</v>
+        <v>0.01183678414662442</v>
       </c>
     </row>
     <row r="28">
@@ -2293,19 +2293,19 @@
         <v>2754</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>814</v>
+        <v>581</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8501</v>
+        <v>8147</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.007379207893009991</v>
+        <v>0.00737920789300999</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002180852397658868</v>
+        <v>0.001555758137424394</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02278259233536125</v>
+        <v>0.02183242721629095</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2314,19 +2314,19 @@
         <v>10888</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5086</v>
+        <v>6015</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24446</v>
+        <v>25974</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.02580224178776332</v>
+        <v>0.02580224178776333</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01205341816687384</v>
+        <v>0.01425540488144465</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05793389746450748</v>
+        <v>0.06155656114342661</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -2335,19 +2335,19 @@
         <v>13641</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7461</v>
+        <v>7556</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>28389</v>
+        <v>27856</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.01715627298379901</v>
+        <v>0.017156272983799</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009383869412196072</v>
+        <v>0.009502648529071457</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03570506660462785</v>
+        <v>0.03503370173537917</v>
       </c>
     </row>
     <row r="29">
@@ -2362,19 +2362,19 @@
         <v>39354</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25327</v>
+        <v>24967</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>59378</v>
+        <v>59917</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1054650942646737</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06787330399159745</v>
+        <v>0.06690994743782508</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1591289928561037</v>
+        <v>0.1605742272479874</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -2383,19 +2383,19 @@
         <v>26340</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17780</v>
+        <v>18798</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36477</v>
+        <v>38524</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.06242307405928765</v>
+        <v>0.06242307405928766</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04213587989846087</v>
+        <v>0.04454904681028955</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08644722041966746</v>
+        <v>0.09129743234138338</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>61</v>
@@ -2404,19 +2404,19 @@
         <v>65694</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>48428</v>
+        <v>49058</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>89155</v>
+        <v>91029</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08262278525133789</v>
+        <v>0.08262278525133786</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06090802548993242</v>
+        <v>0.0616996547714402</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1121293367965656</v>
+        <v>0.1144861103316417</v>
       </c>
     </row>
     <row r="30">
@@ -2431,19 +2431,19 @@
         <v>328273</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>306926</v>
+        <v>305908</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>343513</v>
+        <v>343038</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8797458610698971</v>
+        <v>0.8797458610698968</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.822538035324089</v>
+        <v>0.8198105871942488</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9205876890886369</v>
+        <v>0.9193144048605721</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>550</v>
@@ -2452,19 +2452,19 @@
         <v>382458</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>366944</v>
+        <v>366811</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>392528</v>
+        <v>391834</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9063831489690782</v>
+        <v>0.9063831489690783</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8696152502436533</v>
+        <v>0.869299751515061</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9302480930249545</v>
+        <v>0.9286030085810406</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>812</v>
@@ -2473,19 +2473,19 @@
         <v>710732</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>683896</v>
+        <v>685095</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>729198</v>
+        <v>729671</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.8938822133732246</v>
+        <v>0.8938822133732245</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8601305749033464</v>
+        <v>0.8616381489792124</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9171072573713233</v>
+        <v>0.9177013580361786</v>
       </c>
     </row>
     <row r="31">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2315</v>
+        <v>2487</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001686434966249996</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01011153019541205</v>
+        <v>0.01086294435807319</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2260</v>
+        <v>2006</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0008883348911156813</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.005200980619995617</v>
+        <v>0.004616350105289348</v>
       </c>
     </row>
     <row r="35">
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4018</v>
+        <v>3994</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.005515259806558506</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01953848140252119</v>
+        <v>0.0194208813782976</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01032390145326162</v>
+        <v>0.01032339393215869</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -2768,19 +2768,19 @@
         <v>1598</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4058</v>
+        <v>4184</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003678120798165647</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00105385820758969</v>
+        <v>0.001050809233283792</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.009337269085875547</v>
+        <v>0.009627654731927858</v>
       </c>
     </row>
     <row r="36">
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5462</v>
+        <v>5437</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.007306490916291801</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02655747451985725</v>
+        <v>0.02643441016024421</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>9</v>
@@ -2816,19 +2816,19 @@
         <v>4482</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2162</v>
+        <v>2082</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9784</v>
+        <v>9038</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01957794223289723</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.00944447324925287</v>
+        <v>0.009094459978607651</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04273863152008218</v>
+        <v>0.03948071145675856</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>11</v>
@@ -2837,19 +2837,19 @@
         <v>5984</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2754</v>
+        <v>2990</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>10978</v>
+        <v>11565</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01377051626403954</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.006336004126278294</v>
+        <v>0.006880350807044303</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02526012194534109</v>
+        <v>0.02661227545706485</v>
       </c>
     </row>
     <row r="37">
@@ -2864,19 +2864,19 @@
         <v>203028</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>198888</v>
+        <v>198827</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>204685</v>
+        <v>205067</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9871782492771496</v>
+        <v>0.9871782492771497</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9670489092777436</v>
+        <v>0.9667518670569757</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9952345857109889</v>
+        <v>0.9970900563905127</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>484</v>
@@ -2885,19 +2885,19 @@
         <v>223586</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>218641</v>
+        <v>218942</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>226083</v>
+        <v>226293</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.976708029067755</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.955104830606028</v>
+        <v>0.9564195133621732</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9876141674116348</v>
+        <v>0.9885339305577333</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>759</v>
@@ -2906,19 +2906,19 @@
         <v>426613</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>421274</v>
+        <v>420783</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>430412</v>
+        <v>430010</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.981663028046679</v>
+        <v>0.9816630280466793</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9693765530994298</v>
+        <v>0.9682476833711176</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9904038906026565</v>
+        <v>0.9894793747402258</v>
       </c>
     </row>
     <row r="38">
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4338</v>
+        <v>4418</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003252408305262752</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0160245005405823</v>
+        <v>0.01631861497480637</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4461</v>
+        <v>4661</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001647371408608067</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008346444562215198</v>
+        <v>0.008720610459473784</v>
       </c>
     </row>
     <row r="41">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8408</v>
+        <v>9264</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008516244922372226</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03106071370358812</v>
+        <v>0.03422217000700268</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3138,16 +3138,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4601</v>
+        <v>4807</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.004953924367898195</v>
+        <v>0.004953924367898193</v>
       </c>
       <c r="O41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01744332034675</v>
+        <v>0.01822735155642647</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>4</v>
@@ -3156,19 +3156,19 @@
         <v>3612</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1187</v>
+        <v>719</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10540</v>
+        <v>9695</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006758268865555988</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0022217817316679</v>
+        <v>0.001345094382801349</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01972144667746045</v>
+        <v>0.01813911816805298</v>
       </c>
     </row>
     <row r="42">
@@ -3183,19 +3183,19 @@
         <v>3373</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8009</v>
+        <v>8765</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01245861647766217</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.003300439363623854</v>
+        <v>0.003315900463873354</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02958429298425939</v>
+        <v>0.03237921846540499</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>9</v>
@@ -3204,19 +3204,19 @@
         <v>6418</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2829</v>
+        <v>3020</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>12220</v>
+        <v>13465</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.02433538129011318</v>
+        <v>0.02433538129011317</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0107273090602508</v>
+        <v>0.01144889463541045</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04633344572361493</v>
+        <v>0.05105301378769966</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>13</v>
@@ -3225,19 +3225,19 @@
         <v>9791</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5374</v>
+        <v>5359</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>17083</v>
+        <v>17124</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01831970277055734</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0100546149186893</v>
+        <v>0.01002685116453127</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03196400763523137</v>
+        <v>0.03203907871151627</v>
       </c>
     </row>
     <row r="43">
@@ -3252,19 +3252,19 @@
         <v>8366</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>3790</v>
+        <v>4364</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>14944</v>
+        <v>14866</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03090368909357007</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01400077212621737</v>
+        <v>0.01612247974421408</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05520316772967019</v>
+        <v>0.05491411557029278</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>12</v>
@@ -3273,19 +3273,19 @@
         <v>8567</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>4493</v>
+        <v>4359</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>15021</v>
+        <v>15370</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.03248268076460577</v>
+        <v>0.03248268076460575</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01703469727287705</v>
+        <v>0.01652562232892106</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0569527100884523</v>
+        <v>0.05827566735232801</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>22</v>
@@ -3294,19 +3294,19 @@
         <v>16933</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>10635</v>
+        <v>10727</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>26493</v>
+        <v>24970</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03168290856838873</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01989847418082622</v>
+        <v>0.02007007329585476</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0495700254779613</v>
+        <v>0.04671956415352722</v>
       </c>
     </row>
     <row r="44">
@@ -3321,19 +3321,19 @@
         <v>255783</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>247083</v>
+        <v>246216</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>262126</v>
+        <v>261484</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.9448690412011328</v>
+        <v>0.9448690412011327</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9127307320423007</v>
+        <v>0.9095307466745044</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9683022834639781</v>
+        <v>0.9659303088173583</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>437</v>
@@ -3342,19 +3342,19 @@
         <v>247458</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>238662</v>
+        <v>239110</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>253372</v>
+        <v>253192</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.9382280135773829</v>
+        <v>0.9382280135773826</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9048801582729944</v>
+        <v>0.9065796513034593</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9606520586979773</v>
+        <v>0.9599683875118616</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>791</v>
@@ -3363,19 +3363,19 @@
         <v>503240</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>491916</v>
+        <v>492585</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>511832</v>
+        <v>511486</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9415917483868899</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9204026124554739</v>
+        <v>0.9216544794656097</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9576670691265846</v>
+        <v>0.957020221716383</v>
       </c>
     </row>
     <row r="45">
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>3870</v>
+        <v>4104</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0009136730726565897</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.005012588486034811</v>
+        <v>0.005315394412307923</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1</v>
@@ -3502,16 +3502,16 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>3521</v>
+        <v>3531</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.0004728744130103893</v>
+        <v>0.0004728744130103894</v>
       </c>
       <c r="V46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.002360560291869504</v>
+        <v>0.00236699679815617</v>
       </c>
     </row>
     <row r="47">
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>5797</v>
+        <v>6464</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.001569584197001909</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.008055310967023676</v>
+        <v>0.008982174716061133</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3471</v>
+        <v>4189</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0008959938223968968</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.00449537205699501</v>
+        <v>0.005425809959527181</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6966</v>
+        <v>6214</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.00122096535013729</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.00466980403288801</v>
+        <v>0.004165696831585059</v>
       </c>
     </row>
     <row r="48">
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4679</v>
+        <v>4683</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.001300622173490047</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.006501621847047193</v>
+        <v>0.006507080956064997</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>3</v>
@@ -3616,19 +3616,19 @@
         <v>2274</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>5689</v>
+        <v>6310</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.00294595015663064</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.0009085101333878351</v>
+        <v>0.0009064073012225978</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.007368183196881836</v>
+        <v>0.008173079884424308</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>4</v>
@@ -3637,19 +3637,19 @@
         <v>3210</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>919</v>
+        <v>867</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>8348</v>
+        <v>7955</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.00215216691911221</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.0006159440312229826</v>
+        <v>0.0005808885187926323</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.005595868154996047</v>
+        <v>0.005332766672645565</v>
       </c>
     </row>
     <row r="49">
@@ -3664,19 +3664,19 @@
         <v>6329</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>2951</v>
+        <v>2122</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>13751</v>
+        <v>12472</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.008793409183498736</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.004100659429464934</v>
+        <v>0.00294847447971466</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01910641414973343</v>
+        <v>0.01733041997631143</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>14</v>
@@ -3685,19 +3685,19 @@
         <v>10566</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>5911</v>
+        <v>6121</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>17673</v>
+        <v>17894</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01368500358947239</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.007656082918958592</v>
+        <v>0.007928345562592882</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02289101174644205</v>
+        <v>0.02317641479317148</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>20</v>
@@ -3706,19 +3706,19 @@
         <v>16894</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>10645</v>
+        <v>10517</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>26420</v>
+        <v>25407</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.0113250694705685</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.007136125735216499</v>
+        <v>0.007050130997041524</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01771085671698415</v>
+        <v>0.01703162888617016</v>
       </c>
     </row>
     <row r="50">
@@ -3733,19 +3733,19 @@
         <v>24633</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>15865</v>
+        <v>15982</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>37415</v>
+        <v>38761</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.034227753773155</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02204407677966529</v>
+        <v>0.02220685143626691</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.05198800130585293</v>
+        <v>0.05385806826156853</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>68</v>
@@ -3754,19 +3754,19 @@
         <v>60142</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>46418</v>
+        <v>47720</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>77036</v>
+        <v>77664</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.07789808513410802</v>
+        <v>0.07789808513410805</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.06012261314787604</v>
+        <v>0.06180920475466207</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.09978075633933213</v>
+        <v>0.1005942386559936</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>89</v>
@@ -3775,19 +3775,19 @@
         <v>84775</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>66881</v>
+        <v>67906</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>103776</v>
+        <v>105723</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.05682947306016033</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.0448344256177552</v>
+        <v>0.04552094611426603</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.06956716367980936</v>
+        <v>0.07087188037545691</v>
       </c>
     </row>
     <row r="51">
@@ -3802,19 +3802,19 @@
         <v>686660</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>672577</v>
+        <v>672669</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>696922</v>
+        <v>697093</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.9541086306728543</v>
+        <v>0.9541086306728545</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9345414618764206</v>
+        <v>0.9346681945311287</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.9683682747217317</v>
+        <v>0.9686051647790801</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>873</v>
@@ -3823,19 +3823,19 @@
         <v>697678</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>679365</v>
+        <v>678911</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>711885</v>
+        <v>711766</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.9036612942247353</v>
+        <v>0.9036612942247354</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.8799411710904647</v>
+        <v>0.8793528759993798</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.9220627141388864</v>
+        <v>0.9219085362357454</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>1443</v>
@@ -3844,19 +3844,19 @@
         <v>1384338</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>1363144</v>
+        <v>1361918</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>1402518</v>
+        <v>1403325</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.9279994507870114</v>
+        <v>0.9279994507870113</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.9137920949726012</v>
+        <v>0.9129704468039401</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.9401866326862516</v>
+        <v>0.9407280159510325</v>
       </c>
     </row>
     <row r="52">
@@ -4036,19 +4036,19 @@
         <v>5468</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1774</v>
+        <v>1863</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>12877</v>
+        <v>12469</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.006851649209600624</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.002222731526204664</v>
+        <v>0.002334523200246447</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.01613570659019621</v>
+        <v>0.01562340907047235</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>5</v>
@@ -4057,19 +4057,19 @@
         <v>3821</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>8470</v>
+        <v>9099</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.004596120101429129</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.001792762358398052</v>
+        <v>0.001791619322310265</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.0101887784636325</v>
+        <v>0.01094529649349722</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>10</v>
@@ -4078,19 +4078,19 @@
         <v>9289</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>4784</v>
+        <v>4741</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>17257</v>
+        <v>17073</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.005700864606068218</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.002935857613744993</v>
+        <v>0.00290977757703048</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.01059092638843902</v>
+        <v>0.01047796745578747</v>
       </c>
     </row>
     <row r="56">
@@ -4105,19 +4105,19 @@
         <v>91726</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>73652</v>
+        <v>74834</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>113039</v>
+        <v>112557</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1149341756982643</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.09228724748202254</v>
+        <v>0.09376880018680187</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1416398699859416</v>
+        <v>0.1410360930094849</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>105</v>
@@ -4126,19 +4126,19 @@
         <v>81857</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>67318</v>
+        <v>67472</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>99157</v>
+        <v>98923</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.09846528713232698</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.08097643924254351</v>
+        <v>0.08116198169295663</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1192747667665046</v>
+        <v>0.1189930132377543</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>194</v>
@@ -4147,19 +4147,19 @@
         <v>173583</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>150909</v>
+        <v>149964</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>198005</v>
+        <v>198232</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1065316490670139</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.0926161619693007</v>
+        <v>0.09203637879521963</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1215199010796324</v>
+        <v>0.1216593289247173</v>
       </c>
     </row>
     <row r="57">
@@ -4174,19 +4174,19 @@
         <v>203717</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>178594</v>
+        <v>181399</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>229179</v>
+        <v>230334</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.2552618369703233</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2237819436795365</v>
+        <v>0.227296902932712</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2871663302538396</v>
+        <v>0.2886131605042092</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>290</v>
@@ -4195,19 +4195,19 @@
         <v>220844</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>200383</v>
+        <v>199278</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>245822</v>
+        <v>245610</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.265651339823664</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.2410387090319024</v>
+        <v>0.2397097855279328</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.295696612682079</v>
+        <v>0.2954423839353654</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>493</v>
@@ -4216,19 +4216,19 @@
         <v>424562</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>391773</v>
+        <v>390966</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>459328</v>
+        <v>458484</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.2605626242129552</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.2404397574574643</v>
+        <v>0.2399444111973737</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.2818994838295319</v>
+        <v>0.2813817984461001</v>
       </c>
     </row>
     <row r="58">
@@ -4243,19 +4243,19 @@
         <v>497161</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>465491</v>
+        <v>464397</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>524498</v>
+        <v>524292</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.6229523381218116</v>
+        <v>0.6229523381218117</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.5832691075346885</v>
+        <v>0.5818989576664133</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.6572063973741317</v>
+        <v>0.6569485002750046</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>662</v>
@@ -4264,19 +4264,19 @@
         <v>524809</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>499058</v>
+        <v>498240</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>549937</v>
+        <v>547522</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.6312872529425799</v>
+        <v>0.6312872529425798</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.6003116658988775</v>
+        <v>0.5993276913923535</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.6615138589715597</v>
+        <v>0.6586089799710869</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>1127</v>
@@ -4285,19 +4285,19 @@
         <v>1021969</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>985069</v>
+        <v>985029</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>1061875</v>
+        <v>1060538</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.6272048621139625</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.6045584364401497</v>
+        <v>0.6045337527596287</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.6516955331131873</v>
+        <v>0.6508754768065177</v>
       </c>
     </row>
     <row r="59">
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>4267</v>
+        <v>4870</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.0003695798538156658</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.001141728379534455</v>
+        <v>0.001303185550968777</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>2</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>4163</v>
+        <v>4823</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.0001899803183907217</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.0005726412411894256</v>
+        <v>0.0006635011427927556</v>
       </c>
     </row>
     <row r="61">
@@ -4448,19 +4448,19 @@
         <v>4414</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>1146</v>
+        <v>1214</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>10536</v>
+        <v>10485</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.001249409464119875</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.0003244214694576311</v>
+        <v>0.000343705826107142</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.002982237369499397</v>
+        <v>0.002967856231877509</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>6</v>
@@ -4469,19 +4469,19 @@
         <v>4941</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>2106</v>
+        <v>2046</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>11789</v>
+        <v>12288</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.001322313043079957</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.0005636807683952531</v>
+        <v>0.0005474578029252783</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.003154626824726508</v>
+        <v>0.003288346340569668</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>10</v>
@@ -4490,19 +4490,19 @@
         <v>9355</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>4913</v>
+        <v>5029</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>17516</v>
+        <v>16758</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.001286885113833096</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.0006758210381261602</v>
+        <v>0.0006918379018535359</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.002409379666190413</v>
+        <v>0.002305164325583099</v>
       </c>
     </row>
     <row r="62">
@@ -4517,19 +4517,19 @@
         <v>19116</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>10082</v>
+        <v>10918</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>32032</v>
+        <v>33635</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.005411108718120903</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.002853942935352252</v>
+        <v>0.003090364544263292</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.009067208334587958</v>
+        <v>0.009520881392992226</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>18</v>
@@ -4538,19 +4538,19 @@
         <v>15063</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>8971</v>
+        <v>8712</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>27020</v>
+        <v>27496</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.004030914951759976</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.002400632529479426</v>
+        <v>0.002331192461915853</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.007230536516490624</v>
+        <v>0.007357760614487571</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>33</v>
@@ -4559,19 +4559,19 @@
         <v>34180</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>23613</v>
+        <v>23114</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>50625</v>
+        <v>49910</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.004701628348812352</v>
+        <v>0.004701628348812353</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.003248078615791394</v>
+        <v>0.003179483857000826</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.006963840990215971</v>
+        <v>0.006865496769040674</v>
       </c>
     </row>
     <row r="63">
@@ -4586,19 +4586,19 @@
         <v>123153</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>99756</v>
+        <v>100963</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>147320</v>
+        <v>146374</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.03486024065306785</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.02823735785709536</v>
+        <v>0.02857895346940222</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.04170110434498166</v>
+        <v>0.04143321767823199</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>164</v>
@@ -4607,19 +4607,19 @@
         <v>129808</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>111539</v>
+        <v>110926</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>153197</v>
+        <v>153005</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.03473629793426952</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.02984755455384609</v>
+        <v>0.02968340431233357</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.04099511900100573</v>
+        <v>0.04094375220595912</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>282</v>
@@ -4628,19 +4628,19 @@
         <v>252961</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>221562</v>
+        <v>224210</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>285970</v>
+        <v>286304</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.03479652863809621</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.03047738934847743</v>
+        <v>0.0308417079322176</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.03933710177795498</v>
+        <v>0.0393831602559456</v>
       </c>
     </row>
     <row r="64">
@@ -4655,19 +4655,19 @@
         <v>334505</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>298148</v>
+        <v>296033</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>371702</v>
+        <v>376835</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.0946865321925766</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.08439514600822193</v>
+        <v>0.08379642100480071</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.1052157047970723</v>
+        <v>0.1066686600169214</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>476</v>
@@ -4676,19 +4676,19 @@
         <v>367642</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>335944</v>
+        <v>335322</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>401485</v>
+        <v>401739</v>
       </c>
       <c r="N64" s="6" t="n">
-        <v>0.09838017075998243</v>
+        <v>0.09838017075998244</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.08989775797883043</v>
+        <v>0.08973131119215022</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.107436419379323</v>
+        <v>0.1075044019730578</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>780</v>
@@ -4697,19 +4697,19 @@
         <v>702147</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>653866</v>
+        <v>649650</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>755174</v>
+        <v>754256</v>
       </c>
       <c r="U64" s="6" t="n">
-        <v>0.09658522505640894</v>
+        <v>0.09658522505640893</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.089943782233706</v>
+        <v>0.08936385047814015</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.1038793679794209</v>
+        <v>0.1037531470884839</v>
       </c>
     </row>
     <row r="65">
@@ -4724,19 +4724,19 @@
         <v>3051574</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>3000943</v>
+        <v>3003871</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>3091016</v>
+        <v>3095619</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.8637927089721148</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.8494607264950373</v>
+        <v>0.8502896518243723</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.8749573781810883</v>
+        <v>0.8762603940234918</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>4701</v>
@@ -4745,19 +4745,19 @@
         <v>3218118</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>3178670</v>
+        <v>3177838</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>3256422</v>
+        <v>3255782</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.8611607234570927</v>
+        <v>0.8611607234570924</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.8506045850784183</v>
+        <v>0.8503820088130442</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.8714106987842486</v>
+        <v>0.8712394101696878</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>7636</v>
@@ -4766,19 +4766,19 @@
         <v>6269692</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>6208705</v>
+        <v>6210718</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>6326355</v>
+        <v>6338241</v>
       </c>
       <c r="U65" s="6" t="n">
-        <v>0.8624397525244587</v>
+        <v>0.8624397525244586</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.8540505392360148</v>
+        <v>0.8543275252481485</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.8702341883990934</v>
+        <v>0.8718690847350031</v>
       </c>
     </row>
     <row r="66">
